--- a/Assets/Resources/Data/InputDatas/Monster_Data.xlsx
+++ b/Assets/Resources/Data/InputDatas/Monster_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\india\Desktop\카카오톡 받은 파일\InputDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\india\UnityProjects\HeadingWithWings\Assets\Resources\Data\InputDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1BA096-73A8-48DA-9993-20BF62575206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059C0788-096F-4495-A157-DBA90258DE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7770" yWindow="2415" windowWidth="33255" windowHeight="17610" xr2:uid="{D2A41F6E-9DE7-4C0A-ABED-CE903B031CB9}"/>
+    <workbookView xWindow="1710" yWindow="1395" windowWidth="33255" windowHeight="17610" xr2:uid="{D2A41F6E-9DE7-4C0A-ABED-CE903B031CB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46ADAC34-B8B2-4684-828C-5905D3B0ECA3}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1072,6 +1072,9 @@
       <c r="K10" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="L10" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -1107,6 +1110,9 @@
       <c r="K11" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="L11" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -1142,6 +1148,9 @@
       <c r="K12" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="L12" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -1177,6 +1186,9 @@
       <c r="K13" s="1">
         <v>2</v>
       </c>
+      <c r="L13" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -1212,6 +1224,9 @@
       <c r="K14" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="L14" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -1246,6 +1261,9 @@
       </c>
       <c r="K15" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
